--- a/data/fisheries/participation/rcrb_laa.xlsx
+++ b/data/fisheries/participation/rcrb_laa.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R0086157946a24b35"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rb2fb2d8ec889448f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,7 +12,6 @@
   <x:numFmts>
     <x:numFmt numFmtId="181" formatCode="0"/>
     <x:numFmt numFmtId="182" formatCode="#,0"/>
-    <x:numFmt numFmtId="183" formatCode="\$#,0;(\$#,0);\$#,0"/>
   </x:numFmts>
   <x:fonts>
     <x:font/>
@@ -52,9 +51,7 @@
     </x:xf>
     <x:xf numFmtId="181"/>
     <x:xf numFmtId="182"/>
-    <x:xf numFmtId="183"/>
     <x:xf numFmtId="182" fontId="1"/>
-    <x:xf numFmtId="183" fontId="1"/>
   </x:cellXfs>
 </x:styleSheet>
 </file>
@@ -75,7 +72,7 @@
       </x:c>
       <x:c s="2" t="inlineStr">
         <x:is>
-          <x:t>Value</x:t>
+          <x:t>Participation</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -86,8 +83,8 @@
       <x:c s="9">
         <x:v>311862.72</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>222894.575</x:v>
+      <x:c s="9">
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -97,8 +94,8 @@
       <x:c s="9">
         <x:v>378741.88</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>295184.6519</x:v>
+      <x:c s="9">
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -108,8 +105,8 @@
       <x:c s="9">
         <x:v>219081.7</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>176318.6976</x:v>
+      <x:c s="9">
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -119,8 +116,8 @@
       <x:c s="9">
         <x:v>283495.02</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>233130.4862</x:v>
+      <x:c s="9">
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -130,8 +127,8 @@
       <x:c s="9">
         <x:v>739825.95000000007</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>632068.0751</x:v>
+      <x:c s="9">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -141,8 +138,8 @@
       <x:c s="9">
         <x:v>857704.26</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>767400.0453</x:v>
+      <x:c s="9">
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -152,8 +149,8 @@
       <x:c s="9">
         <x:v>991386.5</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>901069.8125</x:v>
+      <x:c s="9">
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -163,8 +160,8 @@
       <x:c s="9">
         <x:v>847344.71000000008</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>770059.025</x:v>
+      <x:c s="9">
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -174,8 +171,8 @@
       <x:c s="9">
         <x:v>623837.54</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>585531.76</x:v>
+      <x:c s="9">
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -185,8 +182,8 @@
       <x:c s="9">
         <x:v>174149.4</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>181966.409</x:v>
+      <x:c s="9">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -196,8 +193,8 @@
       <x:c s="9">
         <x:v>246481.69</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>274089.719</x:v>
+      <x:c s="9">
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -207,8 +204,8 @@
       <x:c s="9">
         <x:v>247120.59999999998</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>278007.575</x:v>
+      <x:c s="9">
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -218,8 +215,8 @@
       <x:c s="9">
         <x:v>190577.66</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>214353.332</x:v>
+      <x:c s="9">
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -229,8 +226,8 @@
       <x:c s="9">
         <x:v>154344.9</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>177786.6</x:v>
+      <x:c s="9">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -240,8 +237,8 @@
       <x:c s="9">
         <x:v>68476.16</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>76249.416</x:v>
+      <x:c s="9">
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -251,8 +248,8 @@
       <x:c s="9">
         <x:v>78216.829999999987</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>98820.413</x:v>
+      <x:c s="9">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -262,8 +259,8 @@
       <x:c s="9">
         <x:v>138927.54000000004</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>178963.1</x:v>
+      <x:c s="9">
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -273,8 +270,8 @@
       <x:c s="9">
         <x:v>123136.54999999999</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>156273.019</x:v>
+      <x:c s="9">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -284,8 +281,8 @@
       <x:c s="9">
         <x:v>104476.03</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>136766.3055</x:v>
+      <x:c s="9">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -295,8 +292,8 @@
       <x:c s="9">
         <x:v>47963.75</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>68601.6075</x:v>
+      <x:c s="9">
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -306,8 +303,8 @@
       <x:c s="9">
         <x:v>85828.11</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>115001.395</x:v>
+      <x:c s="9">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -317,8 +314,8 @@
       <x:c s="9">
         <x:v>131850.33</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>182085.2185</x:v>
+      <x:c s="9">
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -328,8 +325,8 @@
       <x:c s="9">
         <x:v>96048.41</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>134633.415</x:v>
+      <x:c s="9">
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -339,8 +336,8 @@
       <x:c s="9">
         <x:v>106774.71999999999</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>147464.775</x:v>
+      <x:c s="9">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -350,8 +347,8 @@
       <x:c s="9">
         <x:v>105725.35</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>142280.8875</x:v>
+      <x:c s="9">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -361,8 +358,8 @@
       <x:c s="9">
         <x:v>100468.13</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>136225.215</x:v>
+      <x:c s="9">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -372,8 +369,8 @@
       <x:c s="9">
         <x:v>115725.12</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>156082.288</x:v>
+      <x:c s="9">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -383,8 +380,8 @@
       <x:c s="9">
         <x:v>206202.71</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>275404.274</x:v>
+      <x:c s="9">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -394,8 +391,8 @@
       <x:c s="9">
         <x:v>151407.71000000005</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>212880.825</x:v>
+      <x:c s="9">
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -405,8 +402,8 @@
       <x:c s="9">
         <x:v>105977.05</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>142476.4125</x:v>
+      <x:c s="9">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -416,8 +413,8 @@
       <x:c s="9">
         <x:v>84144.61</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>115411.09</x:v>
+      <x:c s="9">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -427,8 +424,8 @@
       <x:c s="9">
         <x:v>98515.95</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>126542.025</x:v>
+      <x:c s="9">
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -438,8 +435,8 @@
       <x:c s="9">
         <x:v>178352.79999999996</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>265434.95</x:v>
+      <x:c s="9">
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -449,8 +446,8 @@
       <x:c s="9">
         <x:v>261202.80000000002</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>375632.625</x:v>
+      <x:c s="9">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -460,8 +457,8 @@
       <x:c s="9">
         <x:v>249340.89</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>327412.085</x:v>
+      <x:c s="9">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -471,8 +468,8 @@
       <x:c s="9">
         <x:v>125540.2</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>170895.4</x:v>
+      <x:c s="9">
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -482,8 +479,8 @@
       <x:c s="9">
         <x:v>40281.1</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>60030.8375</x:v>
+      <x:c s="9">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -493,8 +490,8 @@
       <x:c s="9">
         <x:v>49939.899999999994</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>84931.065</x:v>
+      <x:c s="9">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -504,8 +501,8 @@
       <x:c s="9">
         <x:v>141557.68</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>265453.26</x:v>
+      <x:c s="9">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -515,8 +512,8 @@
       <x:c s="9">
         <x:v>141336.3</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>262702.4</x:v>
+      <x:c s="9">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -526,8 +523,8 @@
       <x:c s="9">
         <x:v>140675.81</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>270203.66</x:v>
+      <x:c s="9">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -537,8 +534,8 @@
       <x:c s="9">
         <x:v>100568.44</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>246899.1</x:v>
+      <x:c s="9">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -548,8 +545,8 @@
       <x:c s="9">
         <x:v>147065.03</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>376383.15</x:v>
+      <x:c s="9">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -559,8 +556,8 @@
       <x:c s="9">
         <x:v>119186.07999999997</x:v>
       </x:c>
-      <x:c s="10">
-        <x:v>314273.45</x:v>
+      <x:c s="9">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -569,11 +566,11 @@
           <x:t>Total</x:t>
         </x:is>
       </x:c>
-      <x:c s="11">
+      <x:c s="10">
         <x:v>9910866.620000001</x:v>
       </x:c>
-      <x:c s="12">
-        <x:v>11332274.4276</x:v>
+      <x:c s="10">
+        <x:v>566</x:v>
       </x:c>
     </x:row>
     <x:row/>
